--- a/Training/LSTM_BTC_result2.xlsx
+++ b/Training/LSTM_BTC_result2.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>356.9328889510239</v>
+        <v>338.2333702257428</v>
       </c>
       <c r="F1" t="n">
-        <v>304.1010632204618</v>
+        <v>284.7012160686546</v>
       </c>
       <c r="G1" t="n">
-        <v>1.592851422887816</v>
+        <v>1.485954384560744</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>359.4503434168092</v>
+        <v>361.6356380080395</v>
       </c>
       <c r="F2" t="n">
-        <v>309.2315395428081</v>
+        <v>310.5571948494271</v>
       </c>
       <c r="G2" t="n">
-        <v>1.619313613321952</v>
+        <v>1.624162071893684</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>424.8578107788535</v>
+        <v>365.5268694465542</v>
       </c>
       <c r="F3" t="n">
-        <v>376.9279493050554</v>
+        <v>315.9527227384088</v>
       </c>
       <c r="G3" t="n">
-        <v>1.971545738547625</v>
+        <v>1.652299289936451</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>313.8560092833209</v>
+        <v>303.4043410405685</v>
       </c>
       <c r="F4" t="n">
-        <v>263.2774800747482</v>
+        <v>255.5812842973232</v>
       </c>
       <c r="G4" t="n">
-        <v>1.37876249630851</v>
+        <v>1.33345484339268</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>316.0566504841478</v>
+        <v>325.4784323260343</v>
       </c>
       <c r="F5" t="n">
-        <v>269.5773692363118</v>
+        <v>277.1002519344534</v>
       </c>
       <c r="G5" t="n">
-        <v>1.411252954862071</v>
+        <v>1.450712184393545</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>299.6633859299992</v>
+        <v>379.2819990996895</v>
       </c>
       <c r="F6" t="n">
-        <v>257.2941130598588</v>
+        <v>329.4279062500006</v>
       </c>
       <c r="G6" t="n">
-        <v>1.341103442410486</v>
+        <v>1.726546655590074</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>333.6897701253047</v>
+        <v>294.4384739328564</v>
       </c>
       <c r="F7" t="n">
-        <v>283.0269975984637</v>
+        <v>249.1668286179496</v>
       </c>
       <c r="G7" t="n">
-        <v>1.483246714869039</v>
+        <v>1.297031212560302</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>276.3022381476441</v>
+        <v>286.9883375851172</v>
       </c>
       <c r="F8" t="n">
-        <v>232.3896324597743</v>
+        <v>243.5471921755498</v>
       </c>
       <c r="G8" t="n">
-        <v>1.210783992539299</v>
+        <v>1.267755419041232</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>344.1685057501782</v>
+        <v>303.5698391722004</v>
       </c>
       <c r="F9" t="n">
-        <v>297.9145095986441</v>
+        <v>259.6661419470008</v>
       </c>
       <c r="G9" t="n">
-        <v>1.559225882302592</v>
+        <v>1.352728694665132</v>
       </c>
     </row>
   </sheetData>
